--- a/ressources/Backlog Projet Création site web RIL10.xlsx
+++ b/ressources/Backlog Projet Création site web RIL10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\vuejs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\vuejs\vuejs_project\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Story ID</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -528,13 +528,13 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -547,7 +547,9 @@
         <v>1</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>25</v>
       </c>
@@ -578,11 +580,13 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -678,11 +682,13 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -694,11 +700,13 @@
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">

--- a/ressources/Backlog Projet Création site web RIL10.xlsx
+++ b/ressources/Backlog Projet Création site web RIL10.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -630,10 +630,10 @@
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,13 +646,13 @@
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -664,13 +664,13 @@
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -718,10 +718,10 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,11 +750,11 @@
       <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>

--- a/ressources/Backlog Projet Création site web RIL10.xlsx
+++ b/ressources/Backlog Projet Création site web RIL10.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Story ID</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,9 @@
       <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">

--- a/ressources/Backlog Projet Création site web RIL10.xlsx
+++ b/ressources/Backlog Projet Création site web RIL10.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\vuejs\vuejs_project\ressources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\vuejs_project\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B633B8-38CB-4593-AA0D-961F8A837333}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Story ID</t>
   </si>
@@ -101,18 +102,12 @@
   </si>
   <si>
     <t>En tant qu'utilisateur je souhaite pouvoir trier les interventions par colonne</t>
-  </si>
-  <si>
-    <t>JB</t>
-  </si>
-  <si>
-    <t>Gaëtan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -486,19 +481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="99.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -529,14 +524,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -547,14 +540,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -570,7 +561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -581,14 +572,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -604,7 +593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>13</v>
       </c>
@@ -614,13 +603,13 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -631,12 +620,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -647,14 +636,12 @@
         <v>2</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -665,14 +652,12 @@
         <v>2</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -683,14 +668,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -701,14 +684,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -719,14 +700,12 @@
         <v>3</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -742,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -758,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6"/>
@@ -766,7 +745,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="6"/>
@@ -774,7 +753,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
@@ -782,7 +761,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6"/>
@@ -790,7 +769,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
@@ -798,7 +777,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
@@ -806,7 +785,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="6"/>
@@ -814,7 +793,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="6"/>
@@ -822,7 +801,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
@@ -830,7 +809,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="6"/>
@@ -838,7 +817,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="6"/>
@@ -846,7 +825,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="6"/>
@@ -854,7 +833,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
@@ -862,102 +841,102 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -971,19 +950,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
